--- a/src/test/resources/data/test-data.xlsx
+++ b/src/test/resources/data/test-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwazinkosizwane\eclipse-workspace\MagentoTestingFramework\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0414171F-59B7-43FB-901A-C49AC46EDD0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968EA23A-5187-4798-964C-486A5818F689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{A7B60316-8935-475A-BDC3-C5608CF03200}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A7B60316-8935-475A-BDC3-C5608CF03200}"/>
   </bookViews>
   <sheets>
     <sheet name="NavbarData" sheetId="5" r:id="rId1"/>
@@ -474,7 +474,7 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1230,7 +1230,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0582F285-324D-42E0-BBC2-6547F5E29E14}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -1325,7 +1325,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4AF7EB2-E3C3-4B0D-ADCF-68E84157E7AA}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
